--- a/estimation/VAEwithDG/DG_DenseRegressor_1st_torch/vaelstm_3rd_torch/IWALQQ_AE_1st/angle/60/0_fold/19.xlsx
+++ b/estimation/VAEwithDG/DG_DenseRegressor_1st_torch/vaelstm_3rd_torch/IWALQQ_AE_1st/angle/60/0_fold/19.xlsx
@@ -479,13 +479,13 @@
         <v>-6.913127630481568</v>
       </c>
       <c r="E2" t="n">
-        <v>-21.62679579488676</v>
+        <v>-21.59604883070073</v>
       </c>
       <c r="F2" t="n">
-        <v>-0.03181779139381798</v>
+        <v>-0.03804638614226762</v>
       </c>
       <c r="G2" t="n">
-        <v>-8.978470574525428</v>
+        <v>-8.979032810315124</v>
       </c>
     </row>
     <row r="3">
@@ -502,13 +502,13 @@
         <v>-7.211348116124121</v>
       </c>
       <c r="E3" t="n">
-        <v>-21.76982369077835</v>
+        <v>-21.73962918436829</v>
       </c>
       <c r="F3" t="n">
-        <v>-0.1656299093412801</v>
+        <v>-0.1709393707987497</v>
       </c>
       <c r="G3" t="n">
-        <v>-8.477767825257201</v>
+        <v>-8.479522978722423</v>
       </c>
     </row>
     <row r="4">
@@ -525,13 +525,13 @@
         <v>-7.442942240274164</v>
       </c>
       <c r="E4" t="n">
-        <v>-21.94014202300107</v>
+        <v>-21.91545253832315</v>
       </c>
       <c r="F4" t="n">
-        <v>-0.3328632782309728</v>
+        <v>-0.3358553504335248</v>
       </c>
       <c r="G4" t="n">
-        <v>-8.37111414045545</v>
+        <v>-8.372634621591061</v>
       </c>
     </row>
     <row r="5">
@@ -548,13 +548,13 @@
         <v>-7.562476099280389</v>
       </c>
       <c r="E5" t="n">
-        <v>-22.05775686119844</v>
+        <v>-22.0345340785806</v>
       </c>
       <c r="F5" t="n">
-        <v>-0.3669152110590354</v>
+        <v>-0.3692472673345539</v>
       </c>
       <c r="G5" t="n">
-        <v>-7.820137733574737</v>
+        <v>-7.826605889659666</v>
       </c>
     </row>
     <row r="6">
@@ -571,13 +571,13 @@
         <v>-7.568780365736461</v>
       </c>
       <c r="E6" t="n">
-        <v>-21.9788531793733</v>
+        <v>-21.96221588900519</v>
       </c>
       <c r="F6" t="n">
-        <v>-0.490123073112159</v>
+        <v>-0.4926017995936849</v>
       </c>
       <c r="G6" t="n">
-        <v>-7.126534329365513</v>
+        <v>-7.133334937917392</v>
       </c>
     </row>
     <row r="7">
@@ -594,13 +594,13 @@
         <v>-7.44388349122012</v>
       </c>
       <c r="E7" t="n">
-        <v>-22.2472498783532</v>
+        <v>-22.23159527836534</v>
       </c>
       <c r="F7" t="n">
-        <v>-0.6445716890448692</v>
+        <v>-0.6442685706191205</v>
       </c>
       <c r="G7" t="n">
-        <v>-6.522702869246582</v>
+        <v>-6.531879535135781</v>
       </c>
     </row>
     <row r="8">
@@ -617,13 +617,13 @@
         <v>-7.189534419468737</v>
       </c>
       <c r="E8" t="n">
-        <v>-22.63295829710472</v>
+        <v>-22.61707391379411</v>
       </c>
       <c r="F8" t="n">
-        <v>-0.8148655762332506</v>
+        <v>-0.8137802167087955</v>
       </c>
       <c r="G8" t="n">
-        <v>-6.094152083320285</v>
+        <v>-6.10284473752966</v>
       </c>
     </row>
     <row r="9">
@@ -640,13 +640,13 @@
         <v>-6.801009405542238</v>
       </c>
       <c r="E9" t="n">
-        <v>-22.89242766954563</v>
+        <v>-22.87908068079895</v>
       </c>
       <c r="F9" t="n">
-        <v>-0.9533515847454834</v>
+        <v>-0.9502226203506579</v>
       </c>
       <c r="G9" t="n">
-        <v>-5.762486746475642</v>
+        <v>-5.773320785692726</v>
       </c>
     </row>
     <row r="10">
@@ -663,13 +663,13 @@
         <v>-6.27712161925671</v>
       </c>
       <c r="E10" t="n">
-        <v>-23.33007200824439</v>
+        <v>-23.31923796902731</v>
       </c>
       <c r="F10" t="n">
-        <v>-1.049577017900103</v>
+        <v>-1.046760949944761</v>
       </c>
       <c r="G10" t="n">
-        <v>-5.455261554958707</v>
+        <v>-5.464359996738035</v>
       </c>
     </row>
     <row r="11">
@@ -686,13 +686,13 @@
         <v>-5.625122915749779</v>
       </c>
       <c r="E11" t="n">
-        <v>-23.73109768550995</v>
+        <v>-23.7241455177452</v>
       </c>
       <c r="F11" t="n">
-        <v>-1.317680376467985</v>
+        <v>-1.313324271349564</v>
       </c>
       <c r="G11" t="n">
-        <v>-5.070144706038082</v>
+        <v>-5.080558290664611</v>
       </c>
     </row>
     <row r="12">
@@ -709,13 +709,13 @@
         <v>-4.847299973177473</v>
       </c>
       <c r="E12" t="n">
-        <v>-24.19375907234672</v>
+        <v>-24.18766248078367</v>
       </c>
       <c r="F12" t="n">
-        <v>-1.243201245857403</v>
+        <v>-1.239040701013658</v>
       </c>
       <c r="G12" t="n">
-        <v>-4.917920588229818</v>
+        <v>-4.92549365986667</v>
       </c>
     </row>
     <row r="13">
@@ -732,13 +732,13 @@
         <v>-3.948623440252667</v>
       </c>
       <c r="E13" t="n">
-        <v>-24.76934185078861</v>
+        <v>-24.76501507971139</v>
       </c>
       <c r="F13" t="n">
-        <v>-1.17678897657723</v>
+        <v>-1.170887945288864</v>
       </c>
       <c r="G13" t="n">
-        <v>-4.85887116329122</v>
+        <v>-4.861907236555574</v>
       </c>
     </row>
     <row r="14">
@@ -755,13 +755,13 @@
         <v>-2.943535007856333</v>
       </c>
       <c r="E14" t="n">
-        <v>-25.37076791952902</v>
+        <v>-25.3671793884887</v>
       </c>
       <c r="F14" t="n">
-        <v>-1.114180354639518</v>
+        <v>-1.107741532595791</v>
       </c>
       <c r="G14" t="n">
-        <v>-4.738327809980565</v>
+        <v>-4.740547419098144</v>
       </c>
     </row>
     <row r="15">
@@ -778,13 +778,13 @@
         <v>-1.841978307834121</v>
       </c>
       <c r="E15" t="n">
-        <v>-25.97555762499387</v>
+        <v>-25.97302023042994</v>
       </c>
       <c r="F15" t="n">
-        <v>-1.072838912572885</v>
+        <v>-1.065549403334315</v>
       </c>
       <c r="G15" t="n">
-        <v>-4.761105692973522</v>
+        <v>-4.760367452936618</v>
       </c>
     </row>
     <row r="16">
@@ -801,13 +801,13 @@
         <v>-0.6677960559698592</v>
       </c>
       <c r="E16" t="n">
-        <v>-26.7428090286463</v>
+        <v>-26.73939650185319</v>
       </c>
       <c r="F16" t="n">
-        <v>-0.9847781208860128</v>
+        <v>-0.9775032786680433</v>
       </c>
       <c r="G16" t="n">
-        <v>-4.728745356521411</v>
+        <v>-4.724721703869941</v>
       </c>
     </row>
     <row r="17">
@@ -824,13 +824,13 @@
         <v>0.5493420035335705</v>
       </c>
       <c r="E17" t="n">
-        <v>-27.50069309514172</v>
+        <v>-27.49954906753486</v>
       </c>
       <c r="F17" t="n">
-        <v>-0.8597075472165946</v>
+        <v>-0.8527553794518414</v>
       </c>
       <c r="G17" t="n">
-        <v>-4.763110185788957</v>
+        <v>-4.756822922958104</v>
       </c>
     </row>
     <row r="18">
@@ -847,13 +847,13 @@
         <v>1.780848666344476</v>
       </c>
       <c r="E18" t="n">
-        <v>-28.39133569860478</v>
+        <v>-28.38735849151855</v>
       </c>
       <c r="F18" t="n">
-        <v>-0.6899221167423722</v>
+        <v>-0.6846566563467048</v>
       </c>
       <c r="G18" t="n">
-        <v>-5.019093696333757</v>
+        <v>-5.009555243936405</v>
       </c>
     </row>
     <row r="19">
@@ -870,13 +870,13 @@
         <v>2.983785037778268</v>
       </c>
       <c r="E19" t="n">
-        <v>-29.03216227368566</v>
+        <v>-29.03074690619769</v>
       </c>
       <c r="F19" t="n">
-        <v>-0.438622274776077</v>
+        <v>-0.4327896895838474</v>
       </c>
       <c r="G19" t="n">
-        <v>-5.328235378542523</v>
+        <v>-5.312101655881703</v>
       </c>
     </row>
     <row r="20">
@@ -893,13 +893,13 @@
         <v>4.123196328586694</v>
       </c>
       <c r="E20" t="n">
-        <v>-29.45669674047079</v>
+        <v>-29.45565538200813</v>
       </c>
       <c r="F20" t="n">
-        <v>-0.2349804717484686</v>
+        <v>-0.2289767713158971</v>
       </c>
       <c r="G20" t="n">
-        <v>-5.656370852429253</v>
+        <v>-5.641434936450828</v>
       </c>
     </row>
     <row r="21">
@@ -916,13 +916,13 @@
         <v>5.170123200729376</v>
       </c>
       <c r="E21" t="n">
-        <v>-30.05704722770048</v>
+        <v>-30.05494006574083</v>
       </c>
       <c r="F21" t="n">
-        <v>0.1766494614114354</v>
+        <v>0.1818269196834983</v>
       </c>
       <c r="G21" t="n">
-        <v>-6.001656962405121</v>
+        <v>-5.984584550425854</v>
       </c>
     </row>
     <row r="22">
@@ -939,13 +939,13 @@
         <v>6.092038575280747</v>
       </c>
       <c r="E22" t="n">
-        <v>-30.60496800528936</v>
+        <v>-30.60260172596578</v>
       </c>
       <c r="F22" t="n">
-        <v>0.2408616776014963</v>
+        <v>0.2441862022709985</v>
       </c>
       <c r="G22" t="n">
-        <v>-6.268982968881164</v>
+        <v>-6.250556301999762</v>
       </c>
     </row>
     <row r="23">
@@ -962,13 +962,13 @@
         <v>6.875414619955643</v>
       </c>
       <c r="E23" t="n">
-        <v>-30.9266891021667</v>
+        <v>-30.92545707243624</v>
       </c>
       <c r="F23" t="n">
-        <v>0.5258467768808356</v>
+        <v>0.5293717508318813</v>
       </c>
       <c r="G23" t="n">
-        <v>-6.575450364333728</v>
+        <v>-6.556138787209413</v>
       </c>
     </row>
     <row r="24">
@@ -985,13 +985,13 @@
         <v>7.514669998031005</v>
       </c>
       <c r="E24" t="n">
-        <v>-31.12250604970382</v>
+        <v>-31.12120068487035</v>
       </c>
       <c r="F24" t="n">
-        <v>0.711839265118881</v>
+        <v>0.7167136049651952</v>
       </c>
       <c r="G24" t="n">
-        <v>-6.836586888116256</v>
+        <v>-6.816150839412551</v>
       </c>
     </row>
     <row r="25">
@@ -1011,10 +1011,10 @@
         <v>-31.41210392696209</v>
       </c>
       <c r="F25" t="n">
-        <v>0.9551798039058387</v>
+        <v>0.9582012101495921</v>
       </c>
       <c r="G25" t="n">
-        <v>-6.903483169076253</v>
+        <v>-6.88152175023007</v>
       </c>
     </row>
     <row r="26">
@@ -1031,13 +1031,13 @@
         <v>8.363041079063631</v>
       </c>
       <c r="E26" t="n">
-        <v>-31.3289223641284</v>
+        <v>-31.32891991962497</v>
       </c>
       <c r="F26" t="n">
-        <v>0.999767546532103</v>
+        <v>1.00075512591922</v>
       </c>
       <c r="G26" t="n">
-        <v>-7.07646112103457</v>
+        <v>-7.054538814243323</v>
       </c>
     </row>
     <row r="27">
@@ -1054,13 +1054,13 @@
         <v>8.60092347576817</v>
       </c>
       <c r="E27" t="n">
-        <v>-31.42336330977659</v>
+        <v>-31.42366398369891</v>
       </c>
       <c r="F27" t="n">
-        <v>1.238399971706222</v>
+        <v>1.240644025858135</v>
       </c>
       <c r="G27" t="n">
-        <v>-7.329437892356218</v>
+        <v>-7.307784480942651</v>
       </c>
     </row>
     <row r="28">
@@ -1077,13 +1077,13 @@
         <v>8.733758867729202</v>
       </c>
       <c r="E28" t="n">
-        <v>-31.24766951450371</v>
+        <v>-31.24589480501102</v>
       </c>
       <c r="F28" t="n">
-        <v>1.393977948225189</v>
+        <v>1.395596209498138</v>
       </c>
       <c r="G28" t="n">
-        <v>-7.520079826124699</v>
+        <v>-7.496456144943766</v>
       </c>
     </row>
     <row r="29">
@@ -1100,13 +1100,13 @@
         <v>8.783181063622171</v>
       </c>
       <c r="E29" t="n">
-        <v>-31.051341665749</v>
+        <v>-31.0507134283666</v>
       </c>
       <c r="F29" t="n">
-        <v>1.412722400552941</v>
+        <v>1.414453108983829</v>
       </c>
       <c r="G29" t="n">
-        <v>-7.828561492406432</v>
+        <v>-7.803656891426367</v>
       </c>
     </row>
     <row r="30">
@@ -1123,13 +1123,13 @@
         <v>8.760567138016457</v>
       </c>
       <c r="E30" t="n">
-        <v>-30.939131624643</v>
+        <v>-30.93688512598765</v>
       </c>
       <c r="F30" t="n">
-        <v>1.543161103762232</v>
+        <v>1.543830897702999</v>
       </c>
       <c r="G30" t="n">
-        <v>-7.87769112241206</v>
+        <v>-7.851016700946172</v>
       </c>
     </row>
     <row r="31">
@@ -1146,13 +1146,13 @@
         <v>8.677078140099011</v>
       </c>
       <c r="E31" t="n">
-        <v>-30.66052667932499</v>
+        <v>-30.65911864534732</v>
       </c>
       <c r="F31" t="n">
-        <v>1.445156072108055</v>
+        <v>1.448138366296873</v>
       </c>
       <c r="G31" t="n">
-        <v>-7.813537574304402</v>
+        <v>-7.789244099182701</v>
       </c>
     </row>
     <row r="32">
@@ -1169,13 +1169,13 @@
         <v>8.543071315142617</v>
       </c>
       <c r="E32" t="n">
-        <v>-30.24551844242005</v>
+        <v>-30.24435485878572</v>
       </c>
       <c r="F32" t="n">
-        <v>1.428645895918483</v>
+        <v>1.429203242701311</v>
       </c>
       <c r="G32" t="n">
-        <v>-7.814178034203968</v>
+        <v>-7.79057879805737</v>
       </c>
     </row>
     <row r="33">
@@ -1192,13 +1192,13 @@
         <v>8.356020888940353</v>
       </c>
       <c r="E33" t="n">
-        <v>-29.76212522196413</v>
+        <v>-29.75971249707531</v>
       </c>
       <c r="F33" t="n">
-        <v>1.363587881540446</v>
+        <v>1.366081275042572</v>
       </c>
       <c r="G33" t="n">
-        <v>-8.056266987232995</v>
+        <v>-8.032305964578246</v>
       </c>
     </row>
     <row r="34">
@@ -1215,13 +1215,13 @@
         <v>8.118707112704666</v>
       </c>
       <c r="E34" t="n">
-        <v>-29.19379284070587</v>
+        <v>-29.18959807281406</v>
       </c>
       <c r="F34" t="n">
-        <v>1.366467506585059</v>
+        <v>1.368095545871741</v>
       </c>
       <c r="G34" t="n">
-        <v>-8.071398463486098</v>
+        <v>-8.046567197609036</v>
       </c>
     </row>
     <row r="35">
@@ -1238,13 +1238,13 @@
         <v>7.828027586933247</v>
       </c>
       <c r="E35" t="n">
-        <v>-28.70195386088736</v>
+        <v>-28.69976358581098</v>
       </c>
       <c r="F35" t="n">
-        <v>1.385192402885343</v>
+        <v>1.386463544670741</v>
       </c>
       <c r="G35" t="n">
-        <v>-8.040690611355004</v>
+        <v>-8.018470075144876</v>
       </c>
     </row>
     <row r="36">
@@ -1261,13 +1261,13 @@
         <v>7.472244828572753</v>
       </c>
       <c r="E36" t="n">
-        <v>-28.0706926277416</v>
+        <v>-28.07016461499997</v>
       </c>
       <c r="F36" t="n">
-        <v>1.313671121429244</v>
+        <v>1.315054710372581</v>
       </c>
       <c r="G36" t="n">
-        <v>-7.864437024795853</v>
+        <v>-7.844494765785707</v>
       </c>
     </row>
     <row r="37">
@@ -1284,13 +1284,13 @@
         <v>7.052256492921321</v>
       </c>
       <c r="E37" t="n">
-        <v>-27.43780579981259</v>
+        <v>-27.4366959952538</v>
       </c>
       <c r="F37" t="n">
-        <v>1.402401707056883</v>
+        <v>1.404059080384768</v>
       </c>
       <c r="G37" t="n">
-        <v>-7.761885216755445</v>
+        <v>-7.743160320455162</v>
       </c>
     </row>
     <row r="38">
@@ -1307,13 +1307,13 @@
         <v>6.561427001127743</v>
       </c>
       <c r="E38" t="n">
-        <v>-26.85198788549481</v>
+        <v>-26.85229833743086</v>
       </c>
       <c r="F38" t="n">
-        <v>1.233100288262486</v>
+        <v>1.235808798066757</v>
       </c>
       <c r="G38" t="n">
-        <v>-7.678141418132059</v>
+        <v>-7.662027251498707</v>
       </c>
     </row>
     <row r="39">
@@ -1330,13 +1330,13 @@
         <v>5.992460485236004</v>
       </c>
       <c r="E39" t="n">
-        <v>-26.08701720354579</v>
+        <v>-26.08883591410029</v>
       </c>
       <c r="F39" t="n">
-        <v>1.319645487820614</v>
+        <v>1.321777094814589</v>
       </c>
       <c r="G39" t="n">
-        <v>-7.588985488906999</v>
+        <v>-7.574122908031577</v>
       </c>
     </row>
     <row r="40">
@@ -1353,13 +1353,13 @@
         <v>5.350654389716481</v>
       </c>
       <c r="E40" t="n">
-        <v>-25.47116856454799</v>
+        <v>-25.47029832132568</v>
       </c>
       <c r="F40" t="n">
-        <v>1.316320963151112</v>
+        <v>1.318706798502167</v>
       </c>
       <c r="G40" t="n">
-        <v>-7.233623135778418</v>
+        <v>-7.222265972826575</v>
       </c>
     </row>
     <row r="41">
@@ -1376,13 +1376,13 @@
         <v>4.632109167975001</v>
       </c>
       <c r="E41" t="n">
-        <v>-24.89884675368632</v>
+        <v>-24.89952632564082</v>
       </c>
       <c r="F41" t="n">
-        <v>1.374285028565256</v>
+        <v>1.375121048739498</v>
       </c>
       <c r="G41" t="n">
-        <v>-7.223023768890947</v>
+        <v>-7.213426648411192</v>
       </c>
     </row>
     <row r="42">
@@ -1399,13 +1399,13 @@
         <v>3.839602237015166</v>
       </c>
       <c r="E42" t="n">
-        <v>-24.2256940652014</v>
+        <v>-24.22540072478939</v>
       </c>
       <c r="F42" t="n">
-        <v>1.368872897963581</v>
+        <v>1.371664520884589</v>
       </c>
       <c r="G42" t="n">
-        <v>-6.956631562726485</v>
+        <v>-6.946486873477636</v>
       </c>
     </row>
     <row r="43">
@@ -1422,13 +1422,13 @@
         <v>2.981310886340202</v>
       </c>
       <c r="E43" t="n">
-        <v>-23.54593143943242</v>
+        <v>-23.54524208946418</v>
       </c>
       <c r="F43" t="n">
-        <v>1.324808279072076</v>
+        <v>1.327555900931283</v>
       </c>
       <c r="G43" t="n">
-        <v>-6.877131422063581</v>
+        <v>-6.870125475223292</v>
       </c>
     </row>
     <row r="44">
@@ -1445,13 +1445,13 @@
         <v>2.059628308136706</v>
       </c>
       <c r="E44" t="n">
-        <v>-22.86447721728748</v>
+        <v>-22.86469722259649</v>
       </c>
       <c r="F44" t="n">
-        <v>1.436918095537303</v>
+        <v>1.439206150751019</v>
       </c>
       <c r="G44" t="n">
-        <v>-6.799816667470188</v>
+        <v>-6.792654272410157</v>
       </c>
     </row>
     <row r="45">
@@ -1468,13 +1468,13 @@
         <v>1.089979190981292</v>
       </c>
       <c r="E45" t="n">
-        <v>-22.03527720762437</v>
+        <v>-22.03474919488274</v>
       </c>
       <c r="F45" t="n">
-        <v>1.480176028295767</v>
+        <v>1.483480996937801</v>
       </c>
       <c r="G45" t="n">
-        <v>-6.634172225812243</v>
+        <v>-6.629962790899829</v>
       </c>
     </row>
     <row r="46">
@@ -1491,13 +1491,13 @@
         <v>0.08534324276206949</v>
       </c>
       <c r="E46" t="n">
-        <v>-21.51502331989535</v>
+        <v>-21.51517976811509</v>
       </c>
       <c r="F46" t="n">
-        <v>1.464946771905326</v>
+        <v>1.469297988016881</v>
       </c>
       <c r="G46" t="n">
-        <v>-6.514973349389989</v>
+        <v>-6.509385214541106</v>
       </c>
     </row>
     <row r="47">
@@ -1514,13 +1514,13 @@
         <v>-0.9438590930045018</v>
       </c>
       <c r="E47" t="n">
-        <v>-20.82617203036076</v>
+        <v>-20.82842097351955</v>
       </c>
       <c r="F47" t="n">
-        <v>1.546646965658342</v>
+        <v>1.548983910940728</v>
       </c>
       <c r="G47" t="n">
-        <v>-6.493676835477708</v>
+        <v>-6.489843854094047</v>
       </c>
     </row>
     <row r="48">
@@ -1537,13 +1537,13 @@
         <v>-1.975214090557475</v>
       </c>
       <c r="E48" t="n">
-        <v>-20.17620790144562</v>
+        <v>-20.18075956683872</v>
       </c>
       <c r="F48" t="n">
-        <v>1.593126753942103</v>
+        <v>1.596084603096586</v>
       </c>
       <c r="G48" t="n">
-        <v>-6.456021704588729</v>
+        <v>-6.453435419956131</v>
       </c>
     </row>
     <row r="49">
@@ -1560,13 +1560,13 @@
         <v>-2.994417363899265</v>
       </c>
       <c r="E49" t="n">
-        <v>-19.41790338035965</v>
+        <v>-19.42185858691498</v>
       </c>
       <c r="F49" t="n">
-        <v>1.742133905231936</v>
+        <v>1.744544185617325</v>
       </c>
       <c r="G49" t="n">
-        <v>-6.206208120709976</v>
+        <v>-6.20583655618809</v>
       </c>
     </row>
     <row r="50">
@@ -1583,13 +1583,13 @@
         <v>-3.986612804943456</v>
       </c>
       <c r="E50" t="n">
-        <v>-19.00961752789671</v>
+        <v>-19.01608568398164</v>
       </c>
       <c r="F50" t="n">
-        <v>1.726430415175406</v>
+        <v>1.730053169263789</v>
       </c>
       <c r="G50" t="n">
-        <v>-6.216299030883288</v>
+        <v>-6.213766525326227</v>
       </c>
     </row>
     <row r="51">
@@ -1606,13 +1606,13 @@
         <v>-4.927060444740415</v>
       </c>
       <c r="E51" t="n">
-        <v>-18.43482676856726</v>
+        <v>-18.44057135163588</v>
       </c>
       <c r="F51" t="n">
-        <v>1.704904117940379</v>
+        <v>1.706145925684575</v>
       </c>
       <c r="G51" t="n">
-        <v>-6.284402896539413</v>
+        <v>-6.280545470121417</v>
       </c>
     </row>
     <row r="52">
@@ -1629,13 +1629,13 @@
         <v>-5.802258697119636</v>
       </c>
       <c r="E52" t="n">
-        <v>-17.97849664562315</v>
+        <v>-17.98208517666346</v>
       </c>
       <c r="F52" t="n">
-        <v>1.714931471024422</v>
+        <v>1.71759597976689</v>
       </c>
       <c r="G52" t="n">
-        <v>-6.278780538642462</v>
+        <v>-6.27665870966222</v>
       </c>
     </row>
     <row r="53">
@@ -1652,13 +1652,13 @@
         <v>-6.596778503538665</v>
       </c>
       <c r="E53" t="n">
-        <v>-17.57747585736445</v>
+        <v>-17.58215952594296</v>
       </c>
       <c r="F53" t="n">
-        <v>1.804214514428022</v>
+        <v>1.806678573888947</v>
       </c>
       <c r="G53" t="n">
-        <v>-6.187473446395958</v>
+        <v>-6.185952965260348</v>
       </c>
     </row>
     <row r="54">
@@ -1675,13 +1675,13 @@
         <v>-7.290986433090239</v>
       </c>
       <c r="E54" t="n">
-        <v>-16.94986915685171</v>
+        <v>-16.95525684241905</v>
       </c>
       <c r="F54" t="n">
-        <v>1.8549770727272</v>
+        <v>1.858150038183828</v>
       </c>
       <c r="G54" t="n">
-        <v>-6.18986417075388</v>
+        <v>-6.187277886121281</v>
       </c>
     </row>
     <row r="55">
@@ -1698,13 +1698,13 @@
         <v>-7.878563568920314</v>
       </c>
       <c r="E55" t="n">
-        <v>-16.74890164058031</v>
+        <v>-16.75293507124551</v>
       </c>
       <c r="F55" t="n">
-        <v>1.848973372294629</v>
+        <v>1.850938753055128</v>
       </c>
       <c r="G55" t="n">
-        <v>-6.405992497319589</v>
+        <v>-6.405024473959939</v>
       </c>
     </row>
     <row r="56">
@@ -1721,13 +1721,13 @@
         <v>-8.35106914809775</v>
       </c>
       <c r="E56" t="n">
-        <v>-16.2033618093356</v>
+        <v>-16.20553252838451</v>
       </c>
       <c r="F56" t="n">
-        <v>1.891356172823914</v>
+        <v>1.892001521730347</v>
       </c>
       <c r="G56" t="n">
-        <v>-6.317760590392374</v>
+        <v>-6.31689523617693</v>
       </c>
     </row>
     <row r="57">
@@ -1744,13 +1744,13 @@
         <v>-8.70426672666501</v>
       </c>
       <c r="E57" t="n">
-        <v>-16.10923864913375</v>
+        <v>-16.11078846431057</v>
       </c>
       <c r="F57" t="n">
-        <v>1.932106045059651</v>
+        <v>1.933083846433034</v>
       </c>
       <c r="G57" t="n">
-        <v>-6.485790867401374</v>
+        <v>-6.484485502567908</v>
       </c>
     </row>
     <row r="58">
@@ -1767,13 +1767,13 @@
         <v>-8.945490558764872</v>
       </c>
       <c r="E58" t="n">
-        <v>-15.90223320938171</v>
+        <v>-15.90302522849415</v>
       </c>
       <c r="F58" t="n">
-        <v>1.829578682053577</v>
+        <v>1.8300186926716</v>
       </c>
       <c r="G58" t="n">
-        <v>-6.64790055709454</v>
+        <v>-6.6458080621555</v>
       </c>
     </row>
     <row r="59">
@@ -1790,13 +1790,13 @@
         <v>-9.077133885972872</v>
       </c>
       <c r="E59" t="n">
-        <v>-15.65189161276133</v>
+        <v>-15.65068891707207</v>
       </c>
       <c r="F59" t="n">
-        <v>1.877720732672089</v>
+        <v>1.877886958905564</v>
       </c>
       <c r="G59" t="n">
-        <v>-6.420072837096304</v>
+        <v>-6.419945722917763</v>
       </c>
     </row>
     <row r="60">
@@ -1813,13 +1813,13 @@
         <v>-9.11034951677297</v>
       </c>
       <c r="E60" t="n">
-        <v>-15.43032182155274</v>
+        <v>-15.42830266171671</v>
       </c>
       <c r="F60" t="n">
-        <v>1.937738180970336</v>
+        <v>1.938315083780632</v>
       </c>
       <c r="G60" t="n">
-        <v>-6.432314910291058</v>
+        <v>-6.435346094548546</v>
       </c>
     </row>
     <row r="61">
@@ -1836,13 +1836,13 @@
         <v>-9.0595412637949</v>
       </c>
       <c r="E61" t="n">
-        <v>-15.30082669666877</v>
+        <v>-15.29850441840698</v>
       </c>
       <c r="F61" t="n">
-        <v>1.889498350214487</v>
+        <v>1.889855247715772</v>
       </c>
       <c r="G61" t="n">
-        <v>-6.285229138699922</v>
+        <v>-6.287243409529091</v>
       </c>
     </row>
     <row r="62">
@@ -1859,13 +1859,13 @@
         <v>-8.929811238199493</v>
       </c>
       <c r="E62" t="n">
-        <v>-15.27109664591106</v>
+        <v>-15.26700454716345</v>
       </c>
       <c r="F62" t="n">
-        <v>1.883127974266896</v>
+        <v>1.883641319987923</v>
       </c>
       <c r="G62" t="n">
-        <v>-6.364323491792872</v>
+        <v>-6.366303539573972</v>
       </c>
     </row>
     <row r="63">
@@ -1882,13 +1882,13 @@
         <v>-8.737564731743008</v>
       </c>
       <c r="E63" t="n">
-        <v>-15.22308659847795</v>
+        <v>-15.21683844770203</v>
       </c>
       <c r="F63" t="n">
-        <v>1.868074722123666</v>
+        <v>1.868636957913361</v>
       </c>
       <c r="G63" t="n">
-        <v>-6.395696248857865</v>
+        <v>-6.399157665719641</v>
       </c>
     </row>
     <row r="64">
@@ -1905,13 +1905,13 @@
         <v>-8.493638926232926</v>
       </c>
       <c r="E64" t="n">
-        <v>-15.27059307820377</v>
+        <v>-15.26348446221927</v>
       </c>
       <c r="F64" t="n">
-        <v>1.719546693506789</v>
+        <v>1.719771587822667</v>
       </c>
       <c r="G64" t="n">
-        <v>-6.390010333871643</v>
+        <v>-6.393970429433844</v>
       </c>
     </row>
     <row r="65">
@@ -1928,13 +1928,13 @@
         <v>-8.200035031649868</v>
       </c>
       <c r="E65" t="n">
-        <v>-15.33273235548225</v>
+        <v>-15.3231059009613</v>
       </c>
       <c r="F65" t="n">
-        <v>1.705637468970416</v>
+        <v>1.706434377089723</v>
       </c>
       <c r="G65" t="n">
-        <v>-6.491207887009915</v>
+        <v>-6.495060424421045</v>
       </c>
     </row>
     <row r="66">
@@ -1951,13 +1951,13 @@
         <v>-7.871195375281606</v>
       </c>
       <c r="E66" t="n">
-        <v>-15.34367884185728</v>
+        <v>-15.33328481325822</v>
       </c>
       <c r="F66" t="n">
-        <v>1.79550230419118</v>
+        <v>1.795678308438389</v>
       </c>
       <c r="G66" t="n">
-        <v>-6.444253865060064</v>
+        <v>-6.446502808218845</v>
       </c>
     </row>
     <row r="67">
@@ -1974,13 +1974,13 @@
         <v>-7.510242295045577</v>
       </c>
       <c r="E67" t="n">
-        <v>-15.23388641464697</v>
+        <v>-15.2220452400153</v>
       </c>
       <c r="F67" t="n">
-        <v>1.616784658171104</v>
+        <v>1.616545096834625</v>
       </c>
       <c r="G67" t="n">
-        <v>-6.198312374619908</v>
+        <v>-6.203069378301416</v>
       </c>
     </row>
     <row r="68">
@@ -1997,13 +1997,13 @@
         <v>-7.115432402266974</v>
       </c>
       <c r="E68" t="n">
-        <v>-15.36925323677811</v>
+        <v>-15.35618981042971</v>
       </c>
       <c r="F68" t="n">
-        <v>1.591019591982462</v>
+        <v>1.591112483112934</v>
       </c>
       <c r="G68" t="n">
-        <v>-6.318498830429278</v>
+        <v>-6.323250945103919</v>
       </c>
     </row>
     <row r="69">
@@ -2020,13 +2020,13 @@
         <v>-6.69608581050768</v>
       </c>
       <c r="E69" t="n">
-        <v>-15.28479564315215</v>
+        <v>-15.27029973779175</v>
       </c>
       <c r="F69" t="n">
-        <v>1.543811341675531</v>
+        <v>1.545498049044617</v>
       </c>
       <c r="G69" t="n">
-        <v>-6.200409758565815</v>
+        <v>-6.201910683673957</v>
       </c>
     </row>
     <row r="70">
@@ -2043,13 +2043,13 @@
         <v>-6.250422971306215</v>
       </c>
       <c r="E70" t="n">
-        <v>-15.33783647865131</v>
+        <v>-15.32239210595873</v>
       </c>
       <c r="F70" t="n">
-        <v>1.483407661834797</v>
+        <v>1.48326099162879</v>
       </c>
       <c r="G70" t="n">
-        <v>-6.133259249248738</v>
+        <v>-6.135747753743997</v>
       </c>
     </row>
     <row r="71">
@@ -2066,13 +2066,13 @@
         <v>-5.778375812811866</v>
       </c>
       <c r="E71" t="n">
-        <v>-15.3704363764399</v>
+        <v>-15.35446888001256</v>
       </c>
       <c r="F71" t="n">
-        <v>1.37698864936266</v>
+        <v>1.376920203266523</v>
       </c>
       <c r="G71" t="n">
-        <v>-6.140128303896754</v>
+        <v>-6.141785677224638</v>
       </c>
     </row>
     <row r="72">
@@ -2089,13 +2089,13 @@
         <v>-5.287417995152111</v>
       </c>
       <c r="E72" t="n">
-        <v>-15.48558715517635</v>
+        <v>-15.46943387648806</v>
       </c>
       <c r="F72" t="n">
-        <v>1.298016521441383</v>
+        <v>1.297933408324645</v>
       </c>
       <c r="G72" t="n">
-        <v>-5.999452020308143</v>
+        <v>-6.000718273086673</v>
       </c>
     </row>
     <row r="73">
@@ -2112,13 +2112,13 @@
         <v>-4.775755391536003</v>
       </c>
       <c r="E73" t="n">
-        <v>-15.60120238956515</v>
+        <v>-15.58473621443738</v>
       </c>
       <c r="F73" t="n">
-        <v>1.225610329742372</v>
+        <v>1.224172961723499</v>
       </c>
       <c r="G73" t="n">
-        <v>-6.148899182215999</v>
+        <v>-6.14910452050441</v>
       </c>
     </row>
     <row r="74">
@@ -2135,13 +2135,13 @@
         <v>-4.247254651541989</v>
       </c>
       <c r="E74" t="n">
-        <v>-15.70636981627936</v>
+        <v>-15.69107700279965</v>
       </c>
       <c r="F74" t="n">
-        <v>1.087808782191507</v>
+        <v>1.087887006301378</v>
       </c>
       <c r="G74" t="n">
-        <v>-6.061429960360024</v>
+        <v>-6.06089705861153</v>
       </c>
     </row>
     <row r="75">
@@ -2158,13 +2158,13 @@
         <v>-3.709105712538411</v>
       </c>
       <c r="E75" t="n">
-        <v>-15.97248334905241</v>
+        <v>-15.95530826792894</v>
       </c>
       <c r="F75" t="n">
-        <v>1.040620087912044</v>
+        <v>1.040356081541231</v>
       </c>
       <c r="G75" t="n">
-        <v>-6.100282897931397</v>
+        <v>-6.098928643029261</v>
       </c>
     </row>
     <row r="76">
@@ -2181,13 +2181,13 @@
         <v>-3.162230302140536</v>
       </c>
       <c r="E76" t="n">
-        <v>-16.00309342104616</v>
+        <v>-15.98572277964801</v>
       </c>
       <c r="F76" t="n">
-        <v>0.8128999260648798</v>
+        <v>0.8144839642897603</v>
       </c>
       <c r="G76" t="n">
-        <v>-6.24055828295692</v>
+        <v>-6.236651966470255</v>
       </c>
     </row>
     <row r="77">
@@ -2204,13 +2204,13 @@
         <v>-2.616487135106591</v>
       </c>
       <c r="E77" t="n">
-        <v>-16.04806739521491</v>
+        <v>-16.0327012466322</v>
       </c>
       <c r="F77" t="n">
-        <v>0.6704391549698452</v>
+        <v>0.6710747258625441</v>
       </c>
       <c r="G77" t="n">
-        <v>-6.184906717790827</v>
+        <v>-6.179250136845807</v>
       </c>
     </row>
     <row r="78">
@@ -2227,13 +2227,13 @@
         <v>-2.081488477034227</v>
       </c>
       <c r="E78" t="n">
-        <v>-16.17423799542939</v>
+        <v>-16.16120879212906</v>
       </c>
       <c r="F78" t="n">
-        <v>0.6893253884967376</v>
+        <v>0.6891004941808595</v>
       </c>
       <c r="G78" t="n">
-        <v>-6.161199923493156</v>
+        <v>-6.156056688269162</v>
       </c>
     </row>
     <row r="79">
@@ -2250,13 +2250,13 @@
         <v>-1.562260237519474</v>
       </c>
       <c r="E79" t="n">
-        <v>-16.31012305228842</v>
+        <v>-16.29623338377952</v>
       </c>
       <c r="F79" t="n">
-        <v>0.4059585504903472</v>
+        <v>0.4063007809710313</v>
       </c>
       <c r="G79" t="n">
-        <v>-6.179817261642369</v>
+        <v>-6.173226880385768</v>
       </c>
     </row>
     <row r="80">
@@ -2273,13 +2273,13 @@
         <v>-1.071540810934669</v>
       </c>
       <c r="E80" t="n">
-        <v>-16.76985103500504</v>
+        <v>-16.75845964900513</v>
       </c>
       <c r="F80" t="n">
-        <v>0.3830193302707823</v>
+        <v>0.384241581987511</v>
       </c>
       <c r="G80" t="n">
-        <v>-6.15102101119624</v>
+        <v>-6.142768367604887</v>
       </c>
     </row>
     <row r="81">
@@ -2296,13 +2296,13 @@
         <v>-0.6184730908661213</v>
       </c>
       <c r="E81" t="n">
-        <v>-17.21999167525563</v>
+        <v>-17.21088345546257</v>
       </c>
       <c r="F81" t="n">
-        <v>0.2247328439475439</v>
+        <v>0.2244932826110651</v>
       </c>
       <c r="G81" t="n">
-        <v>-6.259698744840892</v>
+        <v>-6.249969621175731</v>
       </c>
     </row>
     <row r="82">
@@ -2319,13 +2319,13 @@
         <v>-0.2080003936624758</v>
       </c>
       <c r="E82" t="n">
-        <v>-17.65053228697676</v>
+        <v>-17.64218675225494</v>
       </c>
       <c r="F82" t="n">
-        <v>-0.08161721534021364</v>
+        <v>-0.08189099972476087</v>
       </c>
       <c r="G82" t="n">
-        <v>-6.311204432183842</v>
+        <v>-6.300893516701517</v>
       </c>
     </row>
     <row r="83">
@@ -2342,13 +2342,13 @@
         <v>0.1483677448302289</v>
       </c>
       <c r="E83" t="n">
-        <v>-18.12015073058514</v>
+        <v>-18.11353101528734</v>
       </c>
       <c r="F83" t="n">
-        <v>-0.09553132888345357</v>
+        <v>-0.095506883849119</v>
       </c>
       <c r="G83" t="n">
-        <v>-6.368806711089833</v>
+        <v>-6.35535705319895</v>
       </c>
     </row>
     <row r="84">
@@ -2365,13 +2365,13 @@
         <v>0.4438902299234777</v>
       </c>
       <c r="E84" t="n">
-        <v>-18.899693097501</v>
+        <v>-18.89400718251477</v>
       </c>
       <c r="F84" t="n">
-        <v>-0.1965724338019848</v>
+        <v>-0.1969244422964027</v>
       </c>
       <c r="G84" t="n">
-        <v>-6.408696118116993</v>
+        <v>-6.394205101763457</v>
       </c>
     </row>
     <row r="85">
@@ -2388,13 +2388,13 @@
         <v>0.675648642000184</v>
       </c>
       <c r="E85" t="n">
-        <v>-19.59010398022613</v>
+        <v>-19.58389005249828</v>
       </c>
       <c r="F85" t="n">
-        <v>-0.3537148925183651</v>
+        <v>-0.353719781525232</v>
       </c>
       <c r="G85" t="n">
-        <v>-6.508695864572871</v>
+        <v>-6.492400804685443</v>
       </c>
     </row>
     <row r="86">
@@ -2411,13 +2411,13 @@
         <v>0.8366802555638682</v>
       </c>
       <c r="E86" t="n">
-        <v>-20.23392751651642</v>
+        <v>-20.23019720427697</v>
       </c>
       <c r="F86" t="n">
-        <v>-0.5136538631626207</v>
+        <v>-0.5127493968922414</v>
       </c>
       <c r="G86" t="n">
-        <v>-6.766385638514223</v>
+        <v>-6.749107888246546</v>
       </c>
     </row>
     <row r="87">
@@ -2434,13 +2434,13 @@
         <v>0.9240155300006612</v>
       </c>
       <c r="E87" t="n">
-        <v>-20.98812038282732</v>
+        <v>-20.98522120175524</v>
       </c>
       <c r="F87" t="n">
-        <v>-0.6123091327300975</v>
+        <v>-0.6114242224871859</v>
       </c>
       <c r="G87" t="n">
-        <v>-7.096897169738275</v>
+        <v>-7.07809404932812</v>
       </c>
     </row>
     <row r="88">
@@ -2457,13 +2457,13 @@
         <v>0.9387905056570572</v>
       </c>
       <c r="E88" t="n">
-        <v>-21.83320966480791</v>
+        <v>-21.83040826387316</v>
       </c>
       <c r="F88" t="n">
-        <v>-0.7334733899128506</v>
+        <v>-0.7322364711755212</v>
       </c>
       <c r="G88" t="n">
-        <v>-7.404591705914434</v>
+        <v>-7.382121830354093</v>
       </c>
     </row>
     <row r="89">
@@ -2480,13 +2480,13 @@
         <v>0.8782715014566768</v>
       </c>
       <c r="E89" t="n">
-        <v>-22.81653072694364</v>
+        <v>-22.81580226492047</v>
       </c>
       <c r="F89" t="n">
-        <v>-0.9373694212975385</v>
+        <v>-0.9359711653336008</v>
       </c>
       <c r="G89" t="n">
-        <v>-7.4813784477662</v>
+        <v>-7.459143244535471</v>
       </c>
     </row>
     <row r="90">
@@ -2503,13 +2503,13 @@
         <v>0.7431188692381182</v>
       </c>
       <c r="E90" t="n">
-        <v>-23.8620741794746</v>
+        <v>-23.86543781619904</v>
       </c>
       <c r="F90" t="n">
-        <v>-1.185290959518795</v>
+        <v>-1.185212735408925</v>
       </c>
       <c r="G90" t="n">
-        <v>-7.850302905943602</v>
+        <v>-7.828698384598705</v>
       </c>
     </row>
     <row r="91">
@@ -2526,13 +2526,13 @@
         <v>0.5388688366810045</v>
       </c>
       <c r="E91" t="n">
-        <v>-25.06888641251762</v>
+        <v>-25.07337940982832</v>
       </c>
       <c r="F91" t="n">
-        <v>-1.111760296240395</v>
+        <v>-1.113011881998325</v>
       </c>
       <c r="G91" t="n">
-        <v>-8.218880244633453</v>
+        <v>-8.196356589997576</v>
       </c>
     </row>
     <row r="92">
@@ -2549,13 +2549,13 @@
         <v>0.2677509059692723</v>
       </c>
       <c r="E92" t="n">
-        <v>-26.3384490486975</v>
+        <v>-26.34479497961075</v>
       </c>
       <c r="F92" t="n">
-        <v>-1.324969885706555</v>
+        <v>-1.32800595897091</v>
       </c>
       <c r="G92" t="n">
-        <v>-8.495309581895691</v>
+        <v>-8.472639257053807</v>
       </c>
     </row>
     <row r="93">
@@ -2572,13 +2572,13 @@
         <v>-0.06534405445718061</v>
       </c>
       <c r="E93" t="n">
-        <v>-27.57879497984069</v>
+        <v>-27.58749741206379</v>
       </c>
       <c r="F93" t="n">
-        <v>-1.617288495286267</v>
+        <v>-1.617723616897423</v>
       </c>
       <c r="G93" t="n">
-        <v>-8.79374922807278</v>
+        <v>-8.772746054572513</v>
       </c>
     </row>
     <row r="94">
@@ -2595,13 +2595,13 @@
         <v>-0.4496965766729248</v>
       </c>
       <c r="E94" t="n">
-        <v>-29.07758603648617</v>
+        <v>-29.08911675918178</v>
       </c>
       <c r="F94" t="n">
-        <v>-1.863391322953032</v>
+        <v>-1.864706465800232</v>
       </c>
       <c r="G94" t="n">
-        <v>-9.129775559042711</v>
+        <v>-9.109026613899525</v>
       </c>
     </row>
     <row r="95">
@@ -2618,13 +2618,13 @@
         <v>-0.8782877169943968</v>
       </c>
       <c r="E95" t="n">
-        <v>-30.72235794917086</v>
+        <v>-30.73327999051155</v>
       </c>
       <c r="F95" t="n">
-        <v>-2.127407471780173</v>
+        <v>-2.129270183396467</v>
       </c>
       <c r="G95" t="n">
-        <v>-9.392158779576302</v>
+        <v>-9.37349744036529</v>
       </c>
     </row>
     <row r="96">
@@ -2641,13 +2641,13 @@
         <v>-1.345850723058169</v>
       </c>
       <c r="E96" t="n">
-        <v>-32.54808911752411</v>
+        <v>-32.56073697828882</v>
       </c>
       <c r="F96" t="n">
-        <v>-2.156780625036598</v>
+        <v>-2.158413553330147</v>
       </c>
       <c r="G96" t="n">
-        <v>-9.739654720656016</v>
+        <v>-9.721697398433838</v>
       </c>
     </row>
     <row r="97">
@@ -2664,13 +2664,13 @@
         <v>-1.83300655912143</v>
       </c>
       <c r="E97" t="n">
-        <v>-34.27257873167729</v>
+        <v>-34.28531215006217</v>
       </c>
       <c r="F97" t="n">
-        <v>-2.527690020001967</v>
+        <v>-2.526805109759056</v>
       </c>
       <c r="G97" t="n">
-        <v>-10.10016030900859</v>
+        <v>-10.08249632719843</v>
       </c>
     </row>
     <row r="98">
@@ -2687,13 +2687,13 @@
         <v>-2.341810808947364</v>
       </c>
       <c r="E98" t="n">
-        <v>-36.26131183347692</v>
+        <v>-36.27527239258539</v>
       </c>
       <c r="F98" t="n">
-        <v>-2.923704465228945</v>
+        <v>-2.923768022318215</v>
       </c>
       <c r="G98" t="n">
-        <v>-10.50820171112818</v>
+        <v>-10.49436093268794</v>
       </c>
     </row>
     <row r="99">
@@ -2710,13 +2710,13 @@
         <v>-2.846814264796822</v>
       </c>
       <c r="E99" t="n">
-        <v>-38.29824320947402</v>
+        <v>-38.31335268519623</v>
       </c>
       <c r="F99" t="n">
-        <v>-3.202324077567561</v>
+        <v>-3.201395166262847</v>
       </c>
       <c r="G99" t="n">
-        <v>-10.83385356952652</v>
+        <v>-10.82180705660644</v>
       </c>
     </row>
     <row r="100">
@@ -2733,13 +2733,13 @@
         <v>-3.36178237243851</v>
       </c>
       <c r="E100" t="n">
-        <v>-40.49269105321284</v>
+        <v>-40.50894700104533</v>
       </c>
       <c r="F100" t="n">
-        <v>-3.565122610140719</v>
+        <v>-3.563475014826568</v>
       </c>
       <c r="G100" t="n">
-        <v>-11.03798427324082</v>
+        <v>-11.02493062490615</v>
       </c>
     </row>
     <row r="101">
@@ -2756,13 +2756,13 @@
         <v>-3.842894746229173</v>
       </c>
       <c r="E101" t="n">
-        <v>-42.39788569467748</v>
+        <v>-42.41436898132929</v>
       </c>
       <c r="F101" t="n">
-        <v>-3.98699501268681</v>
+        <v>-3.986022100320294</v>
       </c>
       <c r="G101" t="n">
-        <v>-11.28079679928615</v>
+        <v>-11.27029521253601</v>
       </c>
     </row>
     <row r="102">
@@ -2779,13 +2779,13 @@
         <v>-4.352879825495099</v>
       </c>
       <c r="E102" t="n">
-        <v>-44.67448352080107</v>
+        <v>-44.69063924399279</v>
       </c>
       <c r="F102" t="n">
-        <v>-4.23708238095011</v>
+        <v>-4.234227200939832</v>
       </c>
       <c r="G102" t="n">
-        <v>-11.43185733346009</v>
+        <v>-11.42079839992713</v>
       </c>
     </row>
   </sheetData>
